--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD33F6F-DDD2-C84C-893F-1F3BE3AF648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615C4A7-A8FD-104C-89FA-29D633CFBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
+    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>x50</t>
+  </si>
+  <si>
+    <t>velocity (m/s)</t>
+  </si>
+  <si>
+    <t>dist_total (m)</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,152 +508,171 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.54166666666666663</v>
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11.87649</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>116.3027</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>144.49610000000001</v>
+        <v>11.87649</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>116.3027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>144.49610000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>341.55779999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>320.02420000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5760.7190000000001</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5548.09</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2373.154</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>5697.2060000000001</v>
+        <v>341.55779999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>6533.03</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2650.78</v>
+        <v>320.02420000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>5630.62</v>
+        <v>5760.7190000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>5945.6530000000002</v>
+        <v>5548.09</v>
       </c>
       <c r="D16" s="3">
-        <v>2456.933</v>
+        <v>2373.154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5697.2060000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6533.03</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2650.78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5630.62</v>
       </c>
       <c r="C18" s="3">
-        <v>3.140479</v>
+        <v>5945.6530000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>3.3117489999999998</v>
+        <v>2456.933</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="D19">
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.140479</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.3117489999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615C4A7-A8FD-104C-89FA-29D633CFBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCEE031-9174-6447-B4A4-8E8101DB7DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -117,13 +117,28 @@
   </si>
   <si>
     <t>dist_total (m)</t>
+  </si>
+  <si>
+    <t>x0m</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>*note: this began as an injection for 100m, wich included the waterfall. The co2 slug below the waterfall did not reach equilibrium for many hours, so we shortened it to 50m for the rest of the time period. I think part of that was the huge pool at the base of the water fall, also, look at the difference in discharge btw 50m and 100m is that real??</t>
+  </si>
+  <si>
+    <t>check methane spread sheet!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +151,13 @@
       <color rgb="FF000000"/>
       <name val="Monaco"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +516,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,12 +524,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -514,12 +537,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -527,7 +550,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -535,7 +558,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -543,7 +566,7 @@
         <v>11.87649</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -551,7 +574,7 @@
         <v>116.3027</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -559,12 +582,12 @@
         <v>144.49610000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -572,106 +595,136 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3">
         <v>341.55779999999999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>320.02420000000001</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>5760.7190000000001</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5548.09</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>2373.154</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>5697.2060000000001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>6533.03</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <v>2650.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="3">
         <v>5630.62</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
         <v>5945.6530000000002</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>2456.933</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="C19">
-        <v>5.3599999999999994</v>
-      </c>
-      <c r="D19">
-        <v>4.335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.1049999999999991</v>
+      </c>
+      <c r="E19">
+        <v>4.62</v>
+      </c>
+      <c r="F19">
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="G19" s="4">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>3.140479</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
         <v>3.3117489999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>

--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCEE031-9174-6447-B4A4-8E8101DB7DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6009ACF7-BBB9-3C4B-B3EE-6EC043F6D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -74,9 +74,6 @@
     <t>k600_m/d</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Gavi-Mainstem</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Methane_nu</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -132,13 +126,31 @@
   </si>
   <si>
     <t>check methane spread sheet!</t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>Ave. CO2 ppm</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave k600</t>
+  </si>
+  <si>
+    <t>DOC mg/l</t>
+  </si>
+  <si>
+    <t>TDN_mg/l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,13 +171,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,12 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,17 +549,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -539,7 +568,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.4381619999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -560,7 +592,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>11.87649</v>
@@ -584,33 +616,44 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -626,12 +669,12 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>5760.7190000000001</v>
@@ -708,25 +751,49 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10.042999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6009ACF7-BBB9-3C4B-B3EE-6EC043F6D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37368C-ACA7-7444-B1EB-0F47F732E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
+    <workbookView xWindow="9480" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -131,26 +131,47 @@
     <t>Background data @ -10m</t>
   </si>
   <si>
-    <t>Ave. CO2 ppm</t>
-  </si>
-  <si>
     <t>Ave flux um/m2</t>
   </si>
   <si>
-    <t>Ave k600</t>
-  </si>
-  <si>
     <t>DOC mg/l</t>
   </si>
   <si>
     <t>TDN_mg/l</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>k _1/m</t>
+  </si>
+  <si>
+    <t>* Salt injection method: continuous</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +200,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,13 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -560,34 +592,34 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4.4381619999999997E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.54166666666666663</v>
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.6</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.4381619999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -600,201 +632,271 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>116.3027</v>
+        <v>3.3117489999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>144.49610000000001</v>
+        <v>110.3724</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>2.1190000000000002</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>137.1283</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
         <v>0.10589999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>341.55779999999999</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>320.02420000000001</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>5760.7190000000001</v>
+        <v>341.55779999999999</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>5548.09</v>
+        <v>320.02420000000001</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>2373.154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>5697.2060000000001</v>
+        <v>5760.7190000000001</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>6533.03</v>
+        <v>5548.09</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>2650.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2373.154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>5630.62</v>
+        <v>5697.2060000000001</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>5945.6530000000002</v>
+        <v>6533.03</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
+        <v>2650.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5630.62</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>5945.6530000000002</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <v>2456.933</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>3.1049999999999991</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>4.62</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3.5100000000000002</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>27.35</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>3.140479</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
         <v>3.3117489999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <f>(B17-B19)/AVERAGE(B17,B19)*100</f>
+        <v>2.2841739676082007</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>336.44869999999997</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5710</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
+        <v>11.87</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3">
-        <v>5710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="B31" s="3">
         <v>1.3520000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10.042999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10.199</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="B35" s="5"/>
+      <c r="D35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37368C-ACA7-7444-B1EB-0F47F732E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE69D-000B-9646-9290-DF678D0420E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
+    <workbookView xWindow="8200" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -165,6 +162,15 @@
   </si>
   <si>
     <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 25</t>
+  </si>
+  <si>
+    <t>slope btw 25 and 50</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 50</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +574,7 @@
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,327 +582,345 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.28400000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.6140000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
         <v>4.4381619999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>11.87649</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3">
         <v>3.3117489999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110.3724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>110.3724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B13" s="3">
         <v>137.1283</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>2.1190000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
+      <c r="B15">
         <v>0.10589999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3">
-        <v>341.55779999999999</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>320.02420000000001</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5760.7190000000001</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>5548.09</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>2373.154</v>
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3">
-        <v>5697.2060000000001</v>
+        <v>341.55779999999999</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>6533.03</v>
+        <v>320.02420000000001</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>2650.78</v>
+      <c r="F18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>5630.62</v>
+        <v>5760.7190000000001</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>5945.6530000000002</v>
+        <v>5548.09</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>2456.933</v>
+        <v>2373.154</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>3.1049999999999991</v>
-      </c>
-      <c r="E20">
-        <v>4.62</v>
-      </c>
-      <c r="F20">
-        <v>3.5100000000000002</v>
-      </c>
-      <c r="G20" s="4">
-        <v>27.35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5697.2060000000001</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>6533.03</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>2650.78</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5630.62</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>3.140479</v>
+        <v>5945.6530000000002</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <v>3.3117489999999998</v>
+        <v>2456.933</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>3.1049999999999991</v>
+      </c>
+      <c r="E22">
+        <v>4.62</v>
+      </c>
+      <c r="F22">
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="G22" s="4">
+        <v>27.35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.140479</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>3.3117489999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <f>(B17-B19)/AVERAGE(B17,B19)*100</f>
-        <v>2.2841739676082007</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>336.44869999999997</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5710</v>
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f>(B19-B21)/AVERAGE(B19,B21)*100</f>
+        <v>2.2841739676082007</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>336.44869999999997</v>
+      </c>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>11.87</v>
+        <v>5710</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>1.3520000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>8.2050000000000001</v>
+        <v>11.87</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>10.199</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8.2050000000000001</v>
+      </c>
       <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10.199</v>
+      </c>
       <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="D37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE69D-000B-9646-9290-DF678D0420E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B990C-85E8-BD49-8435-AF3023D48AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>slope btw 0 and 50</t>
+  </si>
+  <si>
+    <t>Ave Air Press (kPa)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,47 +883,57 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1.3520000000000001</v>
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>64.430000000000007</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3">
-        <v>8.2050000000000001</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3">
-        <v>10.199</v>
+        <v>8.2050000000000001</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10.199</v>
+      </c>
       <c r="D36" s="7"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="5"/>
       <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
